--- a/references/codebook.xlsx
+++ b/references/codebook.xlsx
@@ -12358,7 +12358,7 @@
         <v>0</v>
       </c>
       <c r="K7" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L7" t="s">
         <v>3674</v>
@@ -12396,7 +12396,7 @@
         <v>0</v>
       </c>
       <c r="K8" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L8" t="s">
         <v>3674</v>
@@ -12510,7 +12510,7 @@
         <v>0</v>
       </c>
       <c r="K11" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L11" t="s">
         <v>3674</v>
@@ -12548,7 +12548,7 @@
         <v>0</v>
       </c>
       <c r="K12" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L12" t="s">
         <v>3674</v>
@@ -12618,7 +12618,7 @@
         <v>0</v>
       </c>
       <c r="K14" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L14" t="s">
         <v>3674</v>
@@ -12656,7 +12656,7 @@
         <v>0</v>
       </c>
       <c r="K15" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L15" t="s">
         <v>3674</v>
@@ -12694,7 +12694,7 @@
         <v>0</v>
       </c>
       <c r="K16" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L16" t="s">
         <v>3674</v>
@@ -12855,7 +12855,7 @@
         <v>0</v>
       </c>
       <c r="K20" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L20" t="s">
         <v>3674</v>
@@ -12893,7 +12893,7 @@
         <v>0</v>
       </c>
       <c r="K21" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L21" t="s">
         <v>3674</v>
@@ -12931,7 +12931,7 @@
         <v>0</v>
       </c>
       <c r="K22" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L22" t="s">
         <v>3674</v>
@@ -12969,7 +12969,7 @@
         <v>0</v>
       </c>
       <c r="K23" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L23" t="s">
         <v>3674</v>
@@ -13007,7 +13007,7 @@
         <v>0</v>
       </c>
       <c r="K24" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L24" t="s">
         <v>3674</v>
@@ -13045,7 +13045,7 @@
         <v>0</v>
       </c>
       <c r="K25" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L25" t="s">
         <v>3674</v>
@@ -13083,7 +13083,7 @@
         <v>0</v>
       </c>
       <c r="K26" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L26" t="s">
         <v>3674</v>
@@ -13121,7 +13121,7 @@
         <v>0</v>
       </c>
       <c r="K27" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L27" t="s">
         <v>3674</v>
@@ -13194,7 +13194,7 @@
         <v>0</v>
       </c>
       <c r="K29" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L29" t="s">
         <v>3674</v>
@@ -13232,7 +13232,7 @@
         <v>0</v>
       </c>
       <c r="K30" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L30" t="s">
         <v>3674</v>
@@ -13305,7 +13305,7 @@
         <v>0</v>
       </c>
       <c r="K32" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L32" t="s">
         <v>3675</v>
@@ -13387,7 +13387,7 @@
         <v>0</v>
       </c>
       <c r="K34" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L34" t="s">
         <v>3677</v>
@@ -13428,7 +13428,7 @@
         <v>0</v>
       </c>
       <c r="K35" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L35" t="s">
         <v>3678</v>
@@ -13469,7 +13469,7 @@
         <v>0</v>
       </c>
       <c r="K36" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L36" t="s">
         <v>3678</v>
@@ -13510,7 +13510,7 @@
         <v>0</v>
       </c>
       <c r="K37" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L37" t="s">
         <v>3679</v>
@@ -13551,7 +13551,7 @@
         <v>0</v>
       </c>
       <c r="K38" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L38" t="s">
         <v>3679</v>
@@ -13592,7 +13592,7 @@
         <v>0</v>
       </c>
       <c r="K39" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L39" t="s">
         <v>3680</v>
@@ -13633,7 +13633,7 @@
         <v>0</v>
       </c>
       <c r="K40" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L40" t="s">
         <v>3680</v>
@@ -13674,7 +13674,7 @@
         <v>0</v>
       </c>
       <c r="K41" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L41" t="s">
         <v>3680</v>
@@ -13715,7 +13715,7 @@
         <v>0</v>
       </c>
       <c r="K42" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L42" t="s">
         <v>3681</v>
@@ -13756,7 +13756,7 @@
         <v>0</v>
       </c>
       <c r="K43" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L43" t="s">
         <v>3682</v>
@@ -13797,7 +13797,7 @@
         <v>0</v>
       </c>
       <c r="K44" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L44" t="s">
         <v>3683</v>
@@ -13838,7 +13838,7 @@
         <v>0</v>
       </c>
       <c r="K45" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L45" t="s">
         <v>3684</v>
@@ -13879,7 +13879,7 @@
         <v>0</v>
       </c>
       <c r="K46" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L46" t="s">
         <v>3685</v>
@@ -14005,7 +14005,7 @@
         <v>0</v>
       </c>
       <c r="K49" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L49" t="s">
         <v>3687</v>
@@ -14046,7 +14046,7 @@
         <v>0</v>
       </c>
       <c r="K50" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L50" t="s">
         <v>3688</v>
@@ -14087,7 +14087,7 @@
         <v>0</v>
       </c>
       <c r="K51" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L51" t="s">
         <v>3689</v>
@@ -14128,7 +14128,7 @@
         <v>0</v>
       </c>
       <c r="K52" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L52" t="s">
         <v>3689</v>
@@ -14169,7 +14169,7 @@
         <v>0</v>
       </c>
       <c r="K53" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L53" t="s">
         <v>3690</v>
@@ -14210,7 +14210,7 @@
         <v>0</v>
       </c>
       <c r="K54" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L54" t="s">
         <v>3690</v>
@@ -14251,7 +14251,7 @@
         <v>0</v>
       </c>
       <c r="K55" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L55" t="s">
         <v>3681</v>
@@ -14292,7 +14292,7 @@
         <v>0</v>
       </c>
       <c r="K56" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L56" t="s">
         <v>3687</v>
@@ -14333,7 +14333,7 @@
         <v>0</v>
       </c>
       <c r="K57" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L57" t="s">
         <v>3691</v>
@@ -14374,7 +14374,7 @@
         <v>0</v>
       </c>
       <c r="K58" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L58" t="s">
         <v>3691</v>
@@ -14415,7 +14415,7 @@
         <v>0</v>
       </c>
       <c r="K59" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L59" t="s">
         <v>3688</v>
@@ -14456,7 +14456,7 @@
         <v>0</v>
       </c>
       <c r="K60" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L60" t="s">
         <v>3688</v>
@@ -14497,7 +14497,7 @@
         <v>0</v>
       </c>
       <c r="K61" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L61" t="s">
         <v>3685</v>
@@ -14538,7 +14538,7 @@
         <v>0</v>
       </c>
       <c r="K62" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L62" t="s">
         <v>3692</v>
@@ -14579,7 +14579,7 @@
         <v>0</v>
       </c>
       <c r="K63" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L63" t="s">
         <v>3692</v>
@@ -14620,7 +14620,7 @@
         <v>0</v>
       </c>
       <c r="K64" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L64" t="s">
         <v>3693</v>
@@ -14661,7 +14661,7 @@
         <v>0</v>
       </c>
       <c r="K65" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L65" t="s">
         <v>3694</v>
@@ -14702,7 +14702,7 @@
         <v>0</v>
       </c>
       <c r="K66" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L66" t="s">
         <v>3694</v>
@@ -14743,7 +14743,7 @@
         <v>0</v>
       </c>
       <c r="K67" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L67" t="s">
         <v>3695</v>
@@ -14784,7 +14784,7 @@
         <v>0</v>
       </c>
       <c r="K68" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L68" t="s">
         <v>3696</v>
@@ -14825,7 +14825,7 @@
         <v>0</v>
       </c>
       <c r="K69" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L69" t="s">
         <v>3697</v>
@@ -14866,7 +14866,7 @@
         <v>0</v>
       </c>
       <c r="K70" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L70" t="s">
         <v>3697</v>
@@ -14907,7 +14907,7 @@
         <v>0</v>
       </c>
       <c r="K71" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L71" t="s">
         <v>3698</v>
@@ -14948,7 +14948,7 @@
         <v>0</v>
       </c>
       <c r="K72" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L72" t="s">
         <v>3698</v>
@@ -14989,7 +14989,7 @@
         <v>0</v>
       </c>
       <c r="K73" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L73" t="s">
         <v>3677</v>
@@ -15033,7 +15033,7 @@
         <v>0</v>
       </c>
       <c r="K74" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L74" t="s">
         <v>3699</v>
@@ -15071,7 +15071,7 @@
         <v>0</v>
       </c>
       <c r="K75" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L75" t="s">
         <v>3695</v>
@@ -15112,7 +15112,7 @@
         <v>0</v>
       </c>
       <c r="K76" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L76" t="s">
         <v>3700</v>
@@ -15153,7 +15153,7 @@
         <v>0</v>
       </c>
       <c r="K77" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L77" t="s">
         <v>3700</v>
@@ -15194,7 +15194,7 @@
         <v>0</v>
       </c>
       <c r="K78" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L78" t="s">
         <v>3701</v>
@@ -15235,7 +15235,7 @@
         <v>0</v>
       </c>
       <c r="K79" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L79" t="s">
         <v>3701</v>
@@ -15276,7 +15276,7 @@
         <v>0</v>
       </c>
       <c r="K80" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L80" t="s">
         <v>3702</v>
@@ -15317,7 +15317,7 @@
         <v>0</v>
       </c>
       <c r="K81" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L81" t="s">
         <v>3702</v>
@@ -15358,7 +15358,7 @@
         <v>0</v>
       </c>
       <c r="K82" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L82" t="s">
         <v>3703</v>
@@ -15399,7 +15399,7 @@
         <v>0</v>
       </c>
       <c r="K83" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L83" t="s">
         <v>3703</v>
@@ -15440,7 +15440,7 @@
         <v>0</v>
       </c>
       <c r="K84" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L84" t="s">
         <v>3704</v>
@@ -15481,7 +15481,7 @@
         <v>0</v>
       </c>
       <c r="K85" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L85" t="s">
         <v>3705</v>
@@ -15522,7 +15522,7 @@
         <v>0</v>
       </c>
       <c r="K86" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L86" t="s">
         <v>3705</v>
@@ -15563,7 +15563,7 @@
         <v>0</v>
       </c>
       <c r="K87" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L87" t="s">
         <v>3699</v>
@@ -15604,7 +15604,7 @@
         <v>0</v>
       </c>
       <c r="K88" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L88" t="s">
         <v>3702</v>
@@ -15645,7 +15645,7 @@
         <v>0</v>
       </c>
       <c r="K89" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L89" t="s">
         <v>3706</v>
@@ -15686,7 +15686,7 @@
         <v>0</v>
       </c>
       <c r="K90" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L90" t="s">
         <v>3706</v>
@@ -15727,7 +15727,7 @@
         <v>0</v>
       </c>
       <c r="K91" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L91" t="s">
         <v>3685</v>
@@ -15768,7 +15768,7 @@
         <v>0</v>
       </c>
       <c r="K92" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L92" t="s">
         <v>3692</v>
@@ -15809,7 +15809,7 @@
         <v>0</v>
       </c>
       <c r="K93" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L93" t="s">
         <v>3692</v>
@@ -15850,7 +15850,7 @@
         <v>0</v>
       </c>
       <c r="K94" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L94" t="s">
         <v>3693</v>
@@ -15891,7 +15891,7 @@
         <v>0</v>
       </c>
       <c r="K95" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L95" t="s">
         <v>3694</v>
@@ -15932,7 +15932,7 @@
         <v>0</v>
       </c>
       <c r="K96" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L96" t="s">
         <v>3694</v>
@@ -15973,7 +15973,7 @@
         <v>0</v>
       </c>
       <c r="K97" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L97" t="s">
         <v>3695</v>
@@ -16014,7 +16014,7 @@
         <v>0</v>
       </c>
       <c r="K98" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L98" t="s">
         <v>3696</v>
@@ -16055,7 +16055,7 @@
         <v>0</v>
       </c>
       <c r="K99" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L99" t="s">
         <v>3697</v>
@@ -16096,7 +16096,7 @@
         <v>0</v>
       </c>
       <c r="K100" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L100" t="s">
         <v>3697</v>
@@ -16137,7 +16137,7 @@
         <v>0</v>
       </c>
       <c r="K101" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L101" t="s">
         <v>3698</v>
@@ -16178,7 +16178,7 @@
         <v>0</v>
       </c>
       <c r="K102" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L102" t="s">
         <v>3698</v>
@@ -16260,7 +16260,7 @@
         <v>0</v>
       </c>
       <c r="K104" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L104" t="s">
         <v>3708</v>
@@ -16304,7 +16304,7 @@
         <v>0</v>
       </c>
       <c r="K105" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L105" t="s">
         <v>3708</v>
@@ -16389,7 +16389,7 @@
         <v>0</v>
       </c>
       <c r="K107" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L107" t="s">
         <v>3709</v>
@@ -16430,7 +16430,7 @@
         <v>0</v>
       </c>
       <c r="K108" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L108" t="s">
         <v>3707</v>
@@ -16468,7 +16468,7 @@
         <v>0</v>
       </c>
       <c r="K109" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L109" t="s">
         <v>3708</v>
@@ -16512,7 +16512,7 @@
         <v>0</v>
       </c>
       <c r="K110" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L110" t="s">
         <v>3675</v>
@@ -16591,7 +16591,7 @@
         <v>0</v>
       </c>
       <c r="K112" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L112" t="s">
         <v>3677</v>
@@ -16632,7 +16632,7 @@
         <v>0</v>
       </c>
       <c r="K113" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L113" t="s">
         <v>3678</v>
@@ -16673,7 +16673,7 @@
         <v>0</v>
       </c>
       <c r="K114" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L114" t="s">
         <v>3678</v>
@@ -16714,7 +16714,7 @@
         <v>0</v>
       </c>
       <c r="K115" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L115" t="s">
         <v>3679</v>
@@ -16796,7 +16796,7 @@
         <v>0</v>
       </c>
       <c r="K117" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L117" t="s">
         <v>3680</v>
@@ -16837,7 +16837,7 @@
         <v>0</v>
       </c>
       <c r="K118" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L118" t="s">
         <v>3680</v>
@@ -16878,7 +16878,7 @@
         <v>0</v>
       </c>
       <c r="K119" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L119" t="s">
         <v>3680</v>
@@ -16919,7 +16919,7 @@
         <v>0</v>
       </c>
       <c r="K120" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L120" t="s">
         <v>3681</v>
@@ -16960,7 +16960,7 @@
         <v>0</v>
       </c>
       <c r="K121" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L121" t="s">
         <v>3682</v>
@@ -17001,7 +17001,7 @@
         <v>0</v>
       </c>
       <c r="K122" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L122" t="s">
         <v>3683</v>
@@ -17042,7 +17042,7 @@
         <v>0</v>
       </c>
       <c r="K123" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L123" t="s">
         <v>3684</v>
@@ -17083,7 +17083,7 @@
         <v>0</v>
       </c>
       <c r="K124" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L124" t="s">
         <v>3685</v>
@@ -17203,7 +17203,7 @@
         <v>0</v>
       </c>
       <c r="K127" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L127" t="s">
         <v>3687</v>
@@ -17244,7 +17244,7 @@
         <v>0</v>
       </c>
       <c r="K128" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L128" t="s">
         <v>3688</v>
@@ -17285,7 +17285,7 @@
         <v>0</v>
       </c>
       <c r="K129" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L129" t="s">
         <v>3689</v>
@@ -17367,7 +17367,7 @@
         <v>0</v>
       </c>
       <c r="K131" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L131" t="s">
         <v>3690</v>
@@ -17408,7 +17408,7 @@
         <v>0</v>
       </c>
       <c r="K132" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L132" t="s">
         <v>3690</v>
@@ -17449,7 +17449,7 @@
         <v>0</v>
       </c>
       <c r="K133" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L133" t="s">
         <v>3681</v>
@@ -17490,7 +17490,7 @@
         <v>0</v>
       </c>
       <c r="K134" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L134" t="s">
         <v>3687</v>
@@ -17531,7 +17531,7 @@
         <v>0</v>
       </c>
       <c r="K135" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L135" t="s">
         <v>3691</v>
@@ -17572,7 +17572,7 @@
         <v>0</v>
       </c>
       <c r="K136" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L136" t="s">
         <v>3691</v>
@@ -17613,7 +17613,7 @@
         <v>0</v>
       </c>
       <c r="K137" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L137" t="s">
         <v>3688</v>
@@ -17654,7 +17654,7 @@
         <v>0</v>
       </c>
       <c r="K138" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L138" t="s">
         <v>3688</v>
@@ -17695,7 +17695,7 @@
         <v>0</v>
       </c>
       <c r="K139" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L139" t="s">
         <v>3685</v>
@@ -17736,7 +17736,7 @@
         <v>0</v>
       </c>
       <c r="K140" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L140" t="s">
         <v>3692</v>
@@ -17777,7 +17777,7 @@
         <v>0</v>
       </c>
       <c r="K141" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L141" t="s">
         <v>3692</v>
@@ -17818,7 +17818,7 @@
         <v>0</v>
       </c>
       <c r="K142" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L142" t="s">
         <v>3694</v>
@@ -17859,7 +17859,7 @@
         <v>0</v>
       </c>
       <c r="K143" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L143" t="s">
         <v>3694</v>
@@ -17900,7 +17900,7 @@
         <v>0</v>
       </c>
       <c r="K144" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L144" t="s">
         <v>3695</v>
@@ -17941,7 +17941,7 @@
         <v>0</v>
       </c>
       <c r="K145" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L145" t="s">
         <v>3696</v>
@@ -17982,7 +17982,7 @@
         <v>0</v>
       </c>
       <c r="K146" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L146" t="s">
         <v>3697</v>
@@ -18023,7 +18023,7 @@
         <v>0</v>
       </c>
       <c r="K147" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L147" t="s">
         <v>3697</v>
@@ -18064,7 +18064,7 @@
         <v>0</v>
       </c>
       <c r="K148" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L148" t="s">
         <v>3698</v>
@@ -18105,7 +18105,7 @@
         <v>0</v>
       </c>
       <c r="K149" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L149" t="s">
         <v>3698</v>
@@ -18146,7 +18146,7 @@
         <v>0</v>
       </c>
       <c r="K150" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L150" t="s">
         <v>3677</v>
@@ -18190,7 +18190,7 @@
         <v>0</v>
       </c>
       <c r="K151" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L151" t="s">
         <v>3699</v>
@@ -18228,7 +18228,7 @@
         <v>0</v>
       </c>
       <c r="K152" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L152" t="s">
         <v>3695</v>
@@ -18269,7 +18269,7 @@
         <v>0</v>
       </c>
       <c r="K153" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L153" t="s">
         <v>3700</v>
@@ -18310,7 +18310,7 @@
         <v>0</v>
       </c>
       <c r="K154" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L154" t="s">
         <v>3700</v>
@@ -18392,7 +18392,7 @@
         <v>0</v>
       </c>
       <c r="K156" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L156" t="s">
         <v>3701</v>
@@ -18433,7 +18433,7 @@
         <v>0</v>
       </c>
       <c r="K157" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L157" t="s">
         <v>3702</v>
@@ -18474,7 +18474,7 @@
         <v>0</v>
       </c>
       <c r="K158" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L158" t="s">
         <v>3702</v>
@@ -18515,7 +18515,7 @@
         <v>0</v>
       </c>
       <c r="K159" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L159" t="s">
         <v>3703</v>
@@ -18556,7 +18556,7 @@
         <v>0</v>
       </c>
       <c r="K160" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L160" t="s">
         <v>3703</v>
@@ -18597,7 +18597,7 @@
         <v>0</v>
       </c>
       <c r="K161" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L161" t="s">
         <v>3704</v>
@@ -18638,7 +18638,7 @@
         <v>0</v>
       </c>
       <c r="K162" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L162" t="s">
         <v>3705</v>
@@ -18679,7 +18679,7 @@
         <v>0</v>
       </c>
       <c r="K163" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L163" t="s">
         <v>3705</v>
@@ -18720,7 +18720,7 @@
         <v>0</v>
       </c>
       <c r="K164" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L164" t="s">
         <v>3699</v>
@@ -18761,7 +18761,7 @@
         <v>0</v>
       </c>
       <c r="K165" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L165" t="s">
         <v>3702</v>
@@ -18802,7 +18802,7 @@
         <v>0</v>
       </c>
       <c r="K166" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L166" t="s">
         <v>3706</v>
@@ -18843,7 +18843,7 @@
         <v>0</v>
       </c>
       <c r="K167" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L167" t="s">
         <v>3706</v>
@@ -18884,7 +18884,7 @@
         <v>0</v>
       </c>
       <c r="K168" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L168" t="s">
         <v>3685</v>
@@ -18925,7 +18925,7 @@
         <v>0</v>
       </c>
       <c r="K169" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L169" t="s">
         <v>3692</v>
@@ -18966,7 +18966,7 @@
         <v>0</v>
       </c>
       <c r="K170" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L170" t="s">
         <v>3692</v>
@@ -19048,7 +19048,7 @@
         <v>0</v>
       </c>
       <c r="K172" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L172" t="s">
         <v>3694</v>
@@ -19089,7 +19089,7 @@
         <v>0</v>
       </c>
       <c r="K173" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L173" t="s">
         <v>3694</v>
@@ -19130,7 +19130,7 @@
         <v>0</v>
       </c>
       <c r="K174" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L174" t="s">
         <v>3695</v>
@@ -19171,7 +19171,7 @@
         <v>0</v>
       </c>
       <c r="K175" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L175" t="s">
         <v>3696</v>
@@ -19212,7 +19212,7 @@
         <v>0</v>
       </c>
       <c r="K176" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L176" t="s">
         <v>3697</v>
@@ -19253,7 +19253,7 @@
         <v>0</v>
       </c>
       <c r="K177" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L177" t="s">
         <v>3697</v>
@@ -19294,7 +19294,7 @@
         <v>0</v>
       </c>
       <c r="K178" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L178" t="s">
         <v>3698</v>
@@ -19335,7 +19335,7 @@
         <v>0</v>
       </c>
       <c r="K179" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L179" t="s">
         <v>3698</v>
@@ -19417,7 +19417,7 @@
         <v>0</v>
       </c>
       <c r="K181" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L181" t="s">
         <v>3708</v>
@@ -19461,7 +19461,7 @@
         <v>0</v>
       </c>
       <c r="K182" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L182" t="s">
         <v>3708</v>
@@ -19537,7 +19537,7 @@
         <v>0</v>
       </c>
       <c r="K184" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L184" t="s">
         <v>3708</v>
@@ -19744,7 +19744,7 @@
         <v>0</v>
       </c>
       <c r="K190" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L190" t="s">
         <v>3674</v>
@@ -22245,7 +22245,7 @@
         <v>0</v>
       </c>
       <c r="K260" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L260" t="s">
         <v>3674</v>
@@ -24343,7 +24343,7 @@
         <v>0</v>
       </c>
       <c r="K319" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L319" t="s">
         <v>3674</v>
@@ -24381,7 +24381,7 @@
         <v>0</v>
       </c>
       <c r="K320" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L320" t="s">
         <v>3674</v>
@@ -49489,7 +49489,7 @@
         <v>0</v>
       </c>
       <c r="K1024" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L1024" t="s">
         <v>3744</v>
@@ -49571,7 +49571,7 @@
         <v>0</v>
       </c>
       <c r="K1026" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L1026" t="s">
         <v>3746</v>
@@ -49612,7 +49612,7 @@
         <v>0</v>
       </c>
       <c r="K1027" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L1027" t="s">
         <v>3747</v>
@@ -49653,7 +49653,7 @@
         <v>0</v>
       </c>
       <c r="K1028" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L1028" t="s">
         <v>3748</v>
@@ -49694,7 +49694,7 @@
         <v>0</v>
       </c>
       <c r="K1029" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L1029" t="s">
         <v>3749</v>
@@ -49776,7 +49776,7 @@
         <v>0</v>
       </c>
       <c r="K1031" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L1031" t="s">
         <v>3750</v>
@@ -49817,7 +49817,7 @@
         <v>0</v>
       </c>
       <c r="K1032" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L1032" t="s">
         <v>3751</v>
@@ -49858,7 +49858,7 @@
         <v>0</v>
       </c>
       <c r="K1033" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L1033" t="s">
         <v>3751</v>
@@ -49899,7 +49899,7 @@
         <v>0</v>
       </c>
       <c r="K1034" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L1034" t="s">
         <v>3747</v>
@@ -49940,7 +49940,7 @@
         <v>0</v>
       </c>
       <c r="K1035" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L1035" t="s">
         <v>3751</v>
@@ -49981,7 +49981,7 @@
         <v>0</v>
       </c>
       <c r="K1036" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L1036" t="s">
         <v>3752</v>
@@ -50022,7 +50022,7 @@
         <v>0</v>
       </c>
       <c r="K1037" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L1037" t="s">
         <v>3752</v>
@@ -50063,7 +50063,7 @@
         <v>0</v>
       </c>
       <c r="K1038" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L1038" t="s">
         <v>3753</v>
@@ -50189,7 +50189,7 @@
         <v>0</v>
       </c>
       <c r="K1041" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L1041" t="s">
         <v>3754</v>
@@ -50230,7 +50230,7 @@
         <v>0</v>
       </c>
       <c r="K1042" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L1042" t="s">
         <v>3755</v>
@@ -50271,7 +50271,7 @@
         <v>0</v>
       </c>
       <c r="K1043" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L1043" t="s">
         <v>3756</v>
@@ -50353,7 +50353,7 @@
         <v>0</v>
       </c>
       <c r="K1045" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L1045" t="s">
         <v>3757</v>
@@ -50394,7 +50394,7 @@
         <v>0</v>
       </c>
       <c r="K1046" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L1046" t="s">
         <v>3757</v>
@@ -50435,7 +50435,7 @@
         <v>0</v>
       </c>
       <c r="K1047" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L1047" t="s">
         <v>3747</v>
@@ -50476,7 +50476,7 @@
         <v>0</v>
       </c>
       <c r="K1048" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L1048" t="s">
         <v>3758</v>
@@ -50517,7 +50517,7 @@
         <v>0</v>
       </c>
       <c r="K1049" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L1049" t="s">
         <v>3759</v>
@@ -50558,7 +50558,7 @@
         <v>0</v>
       </c>
       <c r="K1050" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L1050" t="s">
         <v>3760</v>
@@ -50599,7 +50599,7 @@
         <v>0</v>
       </c>
       <c r="K1051" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L1051" t="s">
         <v>3760</v>
@@ -50640,7 +50640,7 @@
         <v>0</v>
       </c>
       <c r="K1052" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L1052" t="s">
         <v>3755</v>
@@ -50681,7 +50681,7 @@
         <v>0</v>
       </c>
       <c r="K1053" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L1053" t="s">
         <v>3753</v>
@@ -50722,7 +50722,7 @@
         <v>0</v>
       </c>
       <c r="K1054" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L1054" t="s">
         <v>3761</v>
@@ -50763,7 +50763,7 @@
         <v>0</v>
       </c>
       <c r="K1055" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L1055" t="s">
         <v>3761</v>
@@ -50804,7 +50804,7 @@
         <v>0</v>
       </c>
       <c r="K1056" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L1056" t="s">
         <v>3762</v>
@@ -50845,7 +50845,7 @@
         <v>0</v>
       </c>
       <c r="K1057" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L1057" t="s">
         <v>3763</v>
@@ -50886,7 +50886,7 @@
         <v>0</v>
       </c>
       <c r="K1058" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L1058" t="s">
         <v>3764</v>
@@ -50927,7 +50927,7 @@
         <v>0</v>
       </c>
       <c r="K1059" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L1059" t="s">
         <v>3765</v>
@@ -50968,7 +50968,7 @@
         <v>0</v>
       </c>
       <c r="K1060" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L1060" t="s">
         <v>3765</v>
@@ -51009,7 +51009,7 @@
         <v>0</v>
       </c>
       <c r="K1061" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L1061" t="s">
         <v>3766</v>
@@ -51050,7 +51050,7 @@
         <v>0</v>
       </c>
       <c r="K1062" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L1062" t="s">
         <v>3767</v>
@@ -51091,7 +51091,7 @@
         <v>0</v>
       </c>
       <c r="K1063" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L1063" t="s">
         <v>3768</v>
@@ -51132,7 +51132,7 @@
         <v>0</v>
       </c>
       <c r="K1064" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L1064" t="s">
         <v>3769</v>
@@ -51176,7 +51176,7 @@
         <v>0</v>
       </c>
       <c r="K1065" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L1065" t="s">
         <v>3770</v>
@@ -51214,7 +51214,7 @@
         <v>0</v>
       </c>
       <c r="K1066" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L1066" t="s">
         <v>3771</v>
@@ -51255,7 +51255,7 @@
         <v>0</v>
       </c>
       <c r="K1067" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L1067" t="s">
         <v>3772</v>
@@ -51296,7 +51296,7 @@
         <v>0</v>
       </c>
       <c r="K1068" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L1068" t="s">
         <v>3773</v>
@@ -51378,7 +51378,7 @@
         <v>0</v>
       </c>
       <c r="K1070" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L1070" t="s">
         <v>3775</v>
@@ -51419,7 +51419,7 @@
         <v>0</v>
       </c>
       <c r="K1071" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L1071" t="s">
         <v>3776</v>
@@ -51460,7 +51460,7 @@
         <v>0</v>
       </c>
       <c r="K1072" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L1072" t="s">
         <v>3777</v>
@@ -51501,7 +51501,7 @@
         <v>0</v>
       </c>
       <c r="K1073" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L1073" t="s">
         <v>3778</v>
@@ -51542,7 +51542,7 @@
         <v>0</v>
       </c>
       <c r="K1074" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L1074" t="s">
         <v>3779</v>
@@ -51583,7 +51583,7 @@
         <v>0</v>
       </c>
       <c r="K1075" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L1075" t="s">
         <v>3780</v>
@@ -51624,7 +51624,7 @@
         <v>0</v>
       </c>
       <c r="K1076" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L1076" t="s">
         <v>3781</v>
@@ -51665,7 +51665,7 @@
         <v>0</v>
       </c>
       <c r="K1077" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L1077" t="s">
         <v>3782</v>
@@ -51706,7 +51706,7 @@
         <v>0</v>
       </c>
       <c r="K1078" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L1078" t="s">
         <v>3783</v>
@@ -51747,7 +51747,7 @@
         <v>0</v>
       </c>
       <c r="K1079" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L1079" t="s">
         <v>3784</v>
@@ -51788,7 +51788,7 @@
         <v>0</v>
       </c>
       <c r="K1080" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L1080" t="s">
         <v>3785</v>
@@ -51829,7 +51829,7 @@
         <v>0</v>
       </c>
       <c r="K1081" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L1081" t="s">
         <v>3785</v>
@@ -51870,7 +51870,7 @@
         <v>0</v>
       </c>
       <c r="K1082" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L1082" t="s">
         <v>3753</v>
@@ -51911,7 +51911,7 @@
         <v>0</v>
       </c>
       <c r="K1083" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L1083" t="s">
         <v>3761</v>
@@ -51952,7 +51952,7 @@
         <v>0</v>
       </c>
       <c r="K1084" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L1084" t="s">
         <v>3761</v>
@@ -52034,7 +52034,7 @@
         <v>0</v>
       </c>
       <c r="K1086" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L1086" t="s">
         <v>3762</v>
@@ -52075,7 +52075,7 @@
         <v>0</v>
       </c>
       <c r="K1087" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L1087" t="s">
         <v>3763</v>
@@ -52116,7 +52116,7 @@
         <v>0</v>
       </c>
       <c r="K1088" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L1088" t="s">
         <v>3764</v>
@@ -52157,7 +52157,7 @@
         <v>0</v>
       </c>
       <c r="K1089" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L1089" t="s">
         <v>3765</v>
@@ -52198,7 +52198,7 @@
         <v>0</v>
       </c>
       <c r="K1090" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L1090" t="s">
         <v>3765</v>
@@ -52239,7 +52239,7 @@
         <v>0</v>
       </c>
       <c r="K1091" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L1091" t="s">
         <v>3766</v>
@@ -52280,7 +52280,7 @@
         <v>0</v>
       </c>
       <c r="K1092" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L1092" t="s">
         <v>3767</v>
@@ -52321,7 +52321,7 @@
         <v>0</v>
       </c>
       <c r="K1093" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L1093" t="s">
         <v>3768</v>
@@ -52403,7 +52403,7 @@
         <v>0</v>
       </c>
       <c r="K1095" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L1095" t="s">
         <v>3788</v>
@@ -52447,7 +52447,7 @@
         <v>0</v>
       </c>
       <c r="K1096" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L1096" t="s">
         <v>3744</v>
@@ -52529,7 +52529,7 @@
         <v>0</v>
       </c>
       <c r="K1098" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L1098" t="s">
         <v>3788</v>
@@ -52573,7 +52573,7 @@
         <v>0</v>
       </c>
       <c r="K1099" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L1099" t="s">
         <v>3789</v>
@@ -52655,7 +52655,7 @@
         <v>0</v>
       </c>
       <c r="K1101" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L1101" t="s">
         <v>3791</v>
@@ -52696,7 +52696,7 @@
         <v>0</v>
       </c>
       <c r="K1102" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L1102" t="s">
         <v>3792</v>
@@ -52737,7 +52737,7 @@
         <v>0</v>
       </c>
       <c r="K1103" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L1103" t="s">
         <v>3793</v>
@@ -52778,7 +52778,7 @@
         <v>0</v>
       </c>
       <c r="K1104" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L1104" t="s">
         <v>3793</v>
@@ -52860,7 +52860,7 @@
         <v>0</v>
       </c>
       <c r="K1106" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L1106" t="s">
         <v>3795</v>
@@ -52901,7 +52901,7 @@
         <v>0</v>
       </c>
       <c r="K1107" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L1107" t="s">
         <v>3796</v>
@@ -52942,7 +52942,7 @@
         <v>0</v>
       </c>
       <c r="K1108" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L1108" t="s">
         <v>3797</v>
@@ -52983,7 +52983,7 @@
         <v>0</v>
       </c>
       <c r="K1109" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L1109" t="s">
         <v>3792</v>
@@ -53024,7 +53024,7 @@
         <v>0</v>
       </c>
       <c r="K1110" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L1110" t="s">
         <v>3797</v>
@@ -53065,7 +53065,7 @@
         <v>0</v>
       </c>
       <c r="K1111" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L1111" t="s">
         <v>3798</v>
@@ -53106,7 +53106,7 @@
         <v>0</v>
       </c>
       <c r="K1112" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L1112" t="s">
         <v>3798</v>
@@ -53147,7 +53147,7 @@
         <v>0</v>
       </c>
       <c r="K1113" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L1113" t="s">
         <v>3799</v>
@@ -53273,7 +53273,7 @@
         <v>0</v>
       </c>
       <c r="K1116" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L1116" t="s">
         <v>3800</v>
@@ -53314,7 +53314,7 @@
         <v>0</v>
       </c>
       <c r="K1117" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L1117" t="s">
         <v>3801</v>
@@ -53355,7 +53355,7 @@
         <v>0</v>
       </c>
       <c r="K1118" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L1118" t="s">
         <v>3801</v>
@@ -53437,7 +53437,7 @@
         <v>0</v>
       </c>
       <c r="K1120" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L1120" t="s">
         <v>3802</v>
@@ -53478,7 +53478,7 @@
         <v>0</v>
       </c>
       <c r="K1121" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L1121" t="s">
         <v>3803</v>
@@ -53519,7 +53519,7 @@
         <v>0</v>
       </c>
       <c r="K1122" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L1122" t="s">
         <v>3803</v>
@@ -53560,7 +53560,7 @@
         <v>0</v>
       </c>
       <c r="K1123" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L1123" t="s">
         <v>3804</v>
@@ -53601,7 +53601,7 @@
         <v>0</v>
       </c>
       <c r="K1124" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L1124" t="s">
         <v>3804</v>
@@ -53642,7 +53642,7 @@
         <v>0</v>
       </c>
       <c r="K1125" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L1125" t="s">
         <v>3805</v>
@@ -53683,7 +53683,7 @@
         <v>0</v>
       </c>
       <c r="K1126" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L1126" t="s">
         <v>3805</v>
@@ -53724,7 +53724,7 @@
         <v>0</v>
       </c>
       <c r="K1127" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L1127" t="s">
         <v>3805</v>
@@ -53765,7 +53765,7 @@
         <v>0</v>
       </c>
       <c r="K1128" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L1128" t="s">
         <v>3799</v>
@@ -53806,7 +53806,7 @@
         <v>0</v>
       </c>
       <c r="K1129" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L1129" t="s">
         <v>3806</v>
@@ -53847,7 +53847,7 @@
         <v>0</v>
       </c>
       <c r="K1130" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L1130" t="s">
         <v>3806</v>
@@ -53888,7 +53888,7 @@
         <v>0</v>
       </c>
       <c r="K1131" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L1131" t="s">
         <v>3807</v>
@@ -53929,7 +53929,7 @@
         <v>0</v>
       </c>
       <c r="K1132" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L1132" t="s">
         <v>3807</v>
@@ -53970,7 +53970,7 @@
         <v>0</v>
       </c>
       <c r="K1133" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L1133" t="s">
         <v>3808</v>
@@ -54011,7 +54011,7 @@
         <v>0</v>
       </c>
       <c r="K1134" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L1134" t="s">
         <v>3799</v>
@@ -54052,7 +54052,7 @@
         <v>0</v>
       </c>
       <c r="K1135" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L1135" t="s">
         <v>3809</v>
@@ -54093,7 +54093,7 @@
         <v>0</v>
       </c>
       <c r="K1136" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L1136" t="s">
         <v>3810</v>
@@ -54134,7 +54134,7 @@
         <v>0</v>
       </c>
       <c r="K1137" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L1137" t="s">
         <v>3811</v>
@@ -54175,7 +54175,7 @@
         <v>0</v>
       </c>
       <c r="K1138" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L1138" t="s">
         <v>3812</v>
@@ -54216,7 +54216,7 @@
         <v>0</v>
       </c>
       <c r="K1139" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L1139" t="s">
         <v>3800</v>
@@ -54260,7 +54260,7 @@
         <v>0</v>
       </c>
       <c r="K1140" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L1140" t="s">
         <v>3813</v>
@@ -54298,7 +54298,7 @@
         <v>0</v>
       </c>
       <c r="K1141" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L1141" t="s">
         <v>3814</v>
@@ -54339,7 +54339,7 @@
         <v>0</v>
       </c>
       <c r="K1142" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L1142" t="s">
         <v>3815</v>
@@ -54380,7 +54380,7 @@
         <v>0</v>
       </c>
       <c r="K1143" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L1143" t="s">
         <v>3816</v>
@@ -54462,7 +54462,7 @@
         <v>0</v>
       </c>
       <c r="K1145" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L1145" t="s">
         <v>3816</v>
@@ -54503,7 +54503,7 @@
         <v>0</v>
       </c>
       <c r="K1146" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L1146" t="s">
         <v>3817</v>
@@ -54544,7 +54544,7 @@
         <v>0</v>
       </c>
       <c r="K1147" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L1147" t="s">
         <v>3818</v>
@@ -54585,7 +54585,7 @@
         <v>0</v>
       </c>
       <c r="K1148" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L1148" t="s">
         <v>3814</v>
@@ -54626,7 +54626,7 @@
         <v>0</v>
       </c>
       <c r="K1149" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L1149" t="s">
         <v>3814</v>
@@ -54667,7 +54667,7 @@
         <v>0</v>
       </c>
       <c r="K1150" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L1150" t="s">
         <v>3819</v>
@@ -54708,7 +54708,7 @@
         <v>0</v>
       </c>
       <c r="K1151" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L1151" t="s">
         <v>3819</v>
@@ -54749,7 +54749,7 @@
         <v>0</v>
       </c>
       <c r="K1152" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L1152" t="s">
         <v>3819</v>
@@ -54790,7 +54790,7 @@
         <v>0</v>
       </c>
       <c r="K1153" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L1153" t="s">
         <v>3813</v>
@@ -54831,7 +54831,7 @@
         <v>0</v>
       </c>
       <c r="K1154" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L1154" t="s">
         <v>3818</v>
@@ -54872,7 +54872,7 @@
         <v>0</v>
       </c>
       <c r="K1155" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L1155" t="s">
         <v>3813</v>
@@ -54913,7 +54913,7 @@
         <v>0</v>
       </c>
       <c r="K1156" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L1156" t="s">
         <v>3813</v>
@@ -54954,7 +54954,7 @@
         <v>0</v>
       </c>
       <c r="K1157" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L1157" t="s">
         <v>3799</v>
@@ -54995,7 +54995,7 @@
         <v>0</v>
       </c>
       <c r="K1158" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L1158" t="s">
         <v>3806</v>
@@ -55036,7 +55036,7 @@
         <v>0</v>
       </c>
       <c r="K1159" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L1159" t="s">
         <v>3806</v>
@@ -55118,7 +55118,7 @@
         <v>0</v>
       </c>
       <c r="K1161" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L1161" t="s">
         <v>3807</v>
@@ -55159,7 +55159,7 @@
         <v>0</v>
       </c>
       <c r="K1162" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L1162" t="s">
         <v>3807</v>
@@ -55200,7 +55200,7 @@
         <v>0</v>
       </c>
       <c r="K1163" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L1163" t="s">
         <v>3808</v>
@@ -55241,7 +55241,7 @@
         <v>0</v>
       </c>
       <c r="K1164" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L1164" t="s">
         <v>3799</v>
@@ -55282,7 +55282,7 @@
         <v>0</v>
       </c>
       <c r="K1165" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L1165" t="s">
         <v>3809</v>
@@ -55323,7 +55323,7 @@
         <v>0</v>
       </c>
       <c r="K1166" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L1166" t="s">
         <v>3810</v>
@@ -55364,7 +55364,7 @@
         <v>0</v>
       </c>
       <c r="K1167" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L1167" t="s">
         <v>3811</v>
@@ -55405,7 +55405,7 @@
         <v>0</v>
       </c>
       <c r="K1168" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L1168" t="s">
         <v>3812</v>
@@ -55487,7 +55487,7 @@
         <v>0</v>
       </c>
       <c r="K1170" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L1170" t="s">
         <v>3821</v>
@@ -55531,7 +55531,7 @@
         <v>0</v>
       </c>
       <c r="K1171" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L1171" t="s">
         <v>3789</v>
@@ -55613,7 +55613,7 @@
         <v>0</v>
       </c>
       <c r="K1173" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L1173" t="s">
         <v>3822</v>
@@ -63559,7 +63559,7 @@
         <v>0</v>
       </c>
       <c r="K1396" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L1396" t="s">
         <v>3787</v>
@@ -63600,7 +63600,7 @@
         <v>0</v>
       </c>
       <c r="K1397" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L1397" t="s">
         <v>3674</v>
@@ -63682,7 +63682,7 @@
         <v>0</v>
       </c>
       <c r="K1399" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L1399" t="s">
         <v>3828</v>
@@ -63758,7 +63758,7 @@
         <v>0</v>
       </c>
       <c r="K1401" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L1401" t="s">
         <v>3829</v>
@@ -63840,7 +63840,7 @@
         <v>0</v>
       </c>
       <c r="K1403" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L1403" t="s">
         <v>3831</v>
@@ -63881,7 +63881,7 @@
         <v>0</v>
       </c>
       <c r="K1404" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L1404" t="s">
         <v>3832</v>
@@ -63922,7 +63922,7 @@
         <v>0</v>
       </c>
       <c r="K1405" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L1405" t="s">
         <v>3833</v>
@@ -63963,7 +63963,7 @@
         <v>0</v>
       </c>
       <c r="K1406" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L1406" t="s">
         <v>3834</v>
@@ -64045,7 +64045,7 @@
         <v>0</v>
       </c>
       <c r="K1408" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L1408" t="s">
         <v>3836</v>
@@ -64086,7 +64086,7 @@
         <v>0</v>
       </c>
       <c r="K1409" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L1409" t="s">
         <v>3837</v>
@@ -64127,7 +64127,7 @@
         <v>0</v>
       </c>
       <c r="K1410" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L1410" t="s">
         <v>3838</v>
@@ -64168,7 +64168,7 @@
         <v>0</v>
       </c>
       <c r="K1411" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L1411" t="s">
         <v>3839</v>
@@ -64209,7 +64209,7 @@
         <v>0</v>
       </c>
       <c r="K1412" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L1412" t="s">
         <v>3840</v>
@@ -64250,7 +64250,7 @@
         <v>0</v>
       </c>
       <c r="K1413" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L1413" t="s">
         <v>3841</v>
@@ -64291,7 +64291,7 @@
         <v>0</v>
       </c>
       <c r="K1414" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L1414" t="s">
         <v>3842</v>
@@ -64332,7 +64332,7 @@
         <v>0</v>
       </c>
       <c r="K1415" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L1415" t="s">
         <v>3843</v>
@@ -64458,7 +64458,7 @@
         <v>0</v>
       </c>
       <c r="K1418" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L1418" t="s">
         <v>3846</v>
@@ -64499,7 +64499,7 @@
         <v>0</v>
       </c>
       <c r="K1419" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L1419" t="s">
         <v>3847</v>
@@ -64540,7 +64540,7 @@
         <v>0</v>
       </c>
       <c r="K1420" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L1420" t="s">
         <v>3848</v>
@@ -64622,7 +64622,7 @@
         <v>0</v>
       </c>
       <c r="K1422" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L1422" t="s">
         <v>3849</v>
@@ -64663,7 +64663,7 @@
         <v>0</v>
       </c>
       <c r="K1423" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L1423" t="s">
         <v>3850</v>
@@ -64704,7 +64704,7 @@
         <v>0</v>
       </c>
       <c r="K1424" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L1424" t="s">
         <v>3851</v>
@@ -64745,7 +64745,7 @@
         <v>0</v>
       </c>
       <c r="K1425" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L1425" t="s">
         <v>3852</v>
@@ -64786,7 +64786,7 @@
         <v>0</v>
       </c>
       <c r="K1426" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L1426" t="s">
         <v>3853</v>
@@ -64827,7 +64827,7 @@
         <v>0</v>
       </c>
       <c r="K1427" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L1427" t="s">
         <v>3854</v>
@@ -64868,7 +64868,7 @@
         <v>0</v>
       </c>
       <c r="K1428" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L1428" t="s">
         <v>3855</v>
@@ -64909,7 +64909,7 @@
         <v>0</v>
       </c>
       <c r="K1429" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L1429" t="s">
         <v>3856</v>
@@ -64950,7 +64950,7 @@
         <v>0</v>
       </c>
       <c r="K1430" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L1430" t="s">
         <v>3857</v>
@@ -64991,7 +64991,7 @@
         <v>0</v>
       </c>
       <c r="K1431" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L1431" t="s">
         <v>3858</v>
@@ -65032,7 +65032,7 @@
         <v>0</v>
       </c>
       <c r="K1432" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L1432" t="s">
         <v>3859</v>
@@ -65073,7 +65073,7 @@
         <v>0</v>
       </c>
       <c r="K1433" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L1433" t="s">
         <v>3860</v>
@@ -65114,7 +65114,7 @@
         <v>0</v>
       </c>
       <c r="K1434" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L1434" t="s">
         <v>3861</v>
@@ -65155,7 +65155,7 @@
         <v>0</v>
       </c>
       <c r="K1435" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L1435" t="s">
         <v>3862</v>
@@ -65196,7 +65196,7 @@
         <v>0</v>
       </c>
       <c r="K1436" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L1436" t="s">
         <v>3863</v>
@@ -65237,7 +65237,7 @@
         <v>0</v>
       </c>
       <c r="K1437" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L1437" t="s">
         <v>3864</v>
@@ -65278,7 +65278,7 @@
         <v>0</v>
       </c>
       <c r="K1438" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L1438" t="s">
         <v>3865</v>
@@ -65319,7 +65319,7 @@
         <v>0</v>
       </c>
       <c r="K1439" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L1439" t="s">
         <v>3866</v>
@@ -65360,7 +65360,7 @@
         <v>0</v>
       </c>
       <c r="K1440" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L1440" t="s">
         <v>3867</v>
@@ -65401,7 +65401,7 @@
         <v>0</v>
       </c>
       <c r="K1441" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L1441" t="s">
         <v>3868</v>
@@ -65445,7 +65445,7 @@
         <v>0</v>
       </c>
       <c r="K1442" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L1442" t="s">
         <v>3869</v>
@@ -65483,7 +65483,7 @@
         <v>0</v>
       </c>
       <c r="K1443" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L1443" t="s">
         <v>3870</v>
@@ -65524,7 +65524,7 @@
         <v>0</v>
       </c>
       <c r="K1444" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L1444" t="s">
         <v>3871</v>
@@ -65565,7 +65565,7 @@
         <v>0</v>
       </c>
       <c r="K1445" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L1445" t="s">
         <v>3871</v>
@@ -65647,7 +65647,7 @@
         <v>0</v>
       </c>
       <c r="K1447" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L1447" t="s">
         <v>3872</v>
@@ -65688,7 +65688,7 @@
         <v>0</v>
       </c>
       <c r="K1448" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L1448" t="s">
         <v>3873</v>
@@ -65729,7 +65729,7 @@
         <v>0</v>
       </c>
       <c r="K1449" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L1449" t="s">
         <v>3873</v>
@@ -65770,7 +65770,7 @@
         <v>0</v>
       </c>
       <c r="K1450" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L1450" t="s">
         <v>3874</v>
@@ -65811,7 +65811,7 @@
         <v>0</v>
       </c>
       <c r="K1451" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L1451" t="s">
         <v>3875</v>
@@ -65852,7 +65852,7 @@
         <v>0</v>
       </c>
       <c r="K1452" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L1452" t="s">
         <v>3876</v>
@@ -65893,7 +65893,7 @@
         <v>0</v>
       </c>
       <c r="K1453" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L1453" t="s">
         <v>3876</v>
@@ -65934,7 +65934,7 @@
         <v>0</v>
       </c>
       <c r="K1454" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L1454" t="s">
         <v>3876</v>
@@ -65975,7 +65975,7 @@
         <v>0</v>
       </c>
       <c r="K1455" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L1455" t="s">
         <v>3877</v>
@@ -66016,7 +66016,7 @@
         <v>0</v>
       </c>
       <c r="K1456" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L1456" t="s">
         <v>3873</v>
@@ -66057,7 +66057,7 @@
         <v>0</v>
       </c>
       <c r="K1457" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L1457" t="s">
         <v>3877</v>
@@ -66098,7 +66098,7 @@
         <v>0</v>
       </c>
       <c r="K1458" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L1458" t="s">
         <v>3877</v>
@@ -66139,7 +66139,7 @@
         <v>0</v>
       </c>
       <c r="K1459" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L1459" t="s">
         <v>3857</v>
@@ -66180,7 +66180,7 @@
         <v>0</v>
       </c>
       <c r="K1460" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L1460" t="s">
         <v>3858</v>
@@ -66221,7 +66221,7 @@
         <v>0</v>
       </c>
       <c r="K1461" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L1461" t="s">
         <v>3859</v>
@@ -66303,7 +66303,7 @@
         <v>0</v>
       </c>
       <c r="K1463" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L1463" t="s">
         <v>3860</v>
@@ -66344,7 +66344,7 @@
         <v>0</v>
       </c>
       <c r="K1464" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L1464" t="s">
         <v>3861</v>
@@ -66385,7 +66385,7 @@
         <v>0</v>
       </c>
       <c r="K1465" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L1465" t="s">
         <v>3862</v>
@@ -66426,7 +66426,7 @@
         <v>0</v>
       </c>
       <c r="K1466" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L1466" t="s">
         <v>3863</v>
@@ -66467,7 +66467,7 @@
         <v>0</v>
       </c>
       <c r="K1467" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L1467" t="s">
         <v>3864</v>
@@ -66508,7 +66508,7 @@
         <v>0</v>
       </c>
       <c r="K1468" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L1468" t="s">
         <v>3865</v>
@@ -66549,7 +66549,7 @@
         <v>0</v>
       </c>
       <c r="K1469" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L1469" t="s">
         <v>3866</v>
@@ -66590,7 +66590,7 @@
         <v>0</v>
       </c>
       <c r="K1470" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L1470" t="s">
         <v>3867</v>
@@ -66672,7 +66672,7 @@
         <v>0</v>
       </c>
       <c r="K1472" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L1472" t="s">
         <v>3869</v>
@@ -66716,7 +66716,7 @@
         <v>0</v>
       </c>
       <c r="K1473" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L1473" t="s">
         <v>3845</v>
@@ -66798,7 +66798,7 @@
         <v>0</v>
       </c>
       <c r="K1475" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L1475" t="s">
         <v>3869</v>
@@ -74896,7 +74896,7 @@
         <v>0</v>
       </c>
       <c r="K1702" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L1702" t="s">
         <v>3674</v>
@@ -77818,7 +77818,7 @@
         <v>0</v>
       </c>
       <c r="K1783" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L1783" t="s">
         <v>3674</v>
@@ -77856,7 +77856,7 @@
         <v>0</v>
       </c>
       <c r="K1784" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L1784" t="s">
         <v>3674</v>
@@ -77894,7 +77894,7 @@
         <v>0</v>
       </c>
       <c r="K1785" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L1785" t="s">
         <v>3674</v>
@@ -77932,7 +77932,7 @@
         <v>0</v>
       </c>
       <c r="K1786" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L1786" t="s">
         <v>3674</v>
@@ -77970,7 +77970,7 @@
         <v>0</v>
       </c>
       <c r="K1787" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L1787" t="s">
         <v>3674</v>
@@ -78008,7 +78008,7 @@
         <v>0</v>
       </c>
       <c r="K1788" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L1788" t="s">
         <v>3674</v>
@@ -78549,7 +78549,7 @@
         <v>0</v>
       </c>
       <c r="K1802" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L1802" t="s">
         <v>3674</v>
@@ -78587,7 +78587,7 @@
         <v>0</v>
       </c>
       <c r="K1803" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L1803" t="s">
         <v>3674</v>
@@ -79116,7 +79116,7 @@
         <v>0</v>
       </c>
       <c r="K1817" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L1817" t="s">
         <v>3674</v>
@@ -79154,7 +79154,7 @@
         <v>0</v>
       </c>
       <c r="K1818" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L1818" t="s">
         <v>3674</v>
@@ -79503,9 +79503,9 @@
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{F207AAE9-F311-409C-82C0-58F5CF573EB8}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{B5E6A5B9-C4A9-424E-A0B6-A5F06EDA6086}"/>
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{DDF16CF8-EF36-45EE-8A13-42025DA39757}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{4996C409-622C-434C-8ED3-E49D6A672D5A}"/>
 </file>
--- a/references/codebook.xlsx
+++ b/references/codebook.xlsx
@@ -79503,9 +79503,9 @@
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{B5E6A5B9-C4A9-424E-A0B6-A5F06EDA6086}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{CF877C42-1C3C-42F6-A9F7-40954B2992DE}"/>
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{4996C409-622C-434C-8ED3-E49D6A672D5A}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{B6E44678-0221-4BC0-A5AB-E0BA6E6FEC2C}"/>
 </file>
--- a/references/codebook.xlsx
+++ b/references/codebook.xlsx
@@ -79503,9 +79503,9 @@
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{CF877C42-1C3C-42F6-A9F7-40954B2992DE}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{555847AB-97DF-44DA-9546-90DC6A70ADF3}"/>
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{B6E44678-0221-4BC0-A5AB-E0BA6E6FEC2C}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{5BFDCB9C-05D6-41EA-BBCF-5D1F2F30FB50}"/>
 </file>
--- a/references/codebook.xlsx
+++ b/references/codebook.xlsx
@@ -79503,9 +79503,9 @@
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{555847AB-97DF-44DA-9546-90DC6A70ADF3}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{7CFA041F-4023-4734-9968-656211B99F59}"/>
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{5BFDCB9C-05D6-41EA-BBCF-5D1F2F30FB50}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{9EFF5193-7F6E-4759-8C3E-7CDBB7FAABEF}"/>
 </file>
--- a/references/codebook.xlsx
+++ b/references/codebook.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12077" uniqueCount="3906">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12076" uniqueCount="3906">
   <si>
     <t>KPI_Code</t>
   </si>
@@ -5731,7 +5731,7 @@
     <t>Number of people reached - Activities to address rising climate risks -Disaggregated by sex (1) or not (0)</t>
   </si>
   <si>
-    <t>People reached with activities to address rising climate risks - Direct</t>
+    <t>Number of people reached - Activities to address rising climate risks - Direct</t>
   </si>
   <si>
     <t>People reached with activities to address rising climate risks - Direct - Total - Age 0 to 5</t>
@@ -10129,7 +10129,7 @@
     <t>Number of people reached - Shelter - Direct  - Disaggregated by disability (1) or not (0)</t>
   </si>
   <si>
-    <t>Number of People Reached - Shelter - Indirect</t>
+    <t>Number of people reached - Shelter - Indirect</t>
   </si>
   <si>
     <t>Number of people reached - Shelter - Indirect - Imputed</t>
@@ -15021,7 +15021,7 @@
         <v>3649</v>
       </c>
       <c r="E74">
-        <v>33066</v>
+        <v>33073</v>
       </c>
       <c r="F74" t="s">
         <v>3660</v>
@@ -16553,7 +16553,7 @@
         <v>0</v>
       </c>
       <c r="K111" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L111" t="s">
         <v>3676</v>
@@ -17124,7 +17124,7 @@
         <v>0</v>
       </c>
       <c r="K125" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L125" t="s">
         <v>3686</v>
@@ -19499,7 +19499,7 @@
         <v>0</v>
       </c>
       <c r="K183" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L183" t="s">
         <v>3686</v>
@@ -24301,9 +24301,6 @@
       <c r="H318" t="b">
         <v>0</v>
       </c>
-      <c r="J318" t="s">
-        <v>3646</v>
-      </c>
       <c r="K318" t="b">
         <v>1</v>
       </c>
@@ -78134,7 +78131,7 @@
         <v>0</v>
       </c>
       <c r="K1791" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L1791" t="s">
         <v>3674</v>
@@ -78701,7 +78698,7 @@
         <v>0</v>
       </c>
       <c r="K1806" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L1806" t="s">
         <v>3674</v>
@@ -79257,8 +79254,8 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x010100690A46C601EF784FB4DBF90453A8B30A" ma:contentTypeVersion="15" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="30e798558c24d933b83cabca3a8549cd">
-  <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="67bd97f6-f5f5-4f29-8f0d-e757ed3ec3ad" xmlns:ns3="ffb314bc-7b2d-45ce-a517-7d370eafd82d" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="bfbdb12039145b339eccd1e6b363e79e" ns2:_="" ns3:_="">
+<ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x010100690A46C601EF784FB4DBF90453A8B30A" ma:contentTypeVersion="16" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="8c2a6d426412259875eae8505f32291d">
+  <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="67bd97f6-f5f5-4f29-8f0d-e757ed3ec3ad" xmlns:ns3="ffb314bc-7b2d-45ce-a517-7d370eafd82d" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="9ede3b69aa4e47f5cdfdf7e34ba2e0ff" ns2:_="" ns3:_="">
     <xsd:import namespace="67bd97f6-f5f5-4f29-8f0d-e757ed3ec3ad"/>
     <xsd:import namespace="ffb314bc-7b2d-45ce-a517-7d370eafd82d"/>
     <xsd:element name="properties">
@@ -79281,6 +79278,7 @@
                 <xsd:element ref="ns3:SharedWithDetails" minOccurs="0"/>
                 <xsd:element ref="ns2:lcf76f155ced4ddcb4097134ff3c332f" minOccurs="0"/>
                 <xsd:element ref="ns3:TaxCatchAll" minOccurs="0"/>
+                <xsd:element ref="ns2:MediaLengthInSeconds" minOccurs="0"/>
               </xsd:all>
             </xsd:complexType>
           </xsd:element>
@@ -79351,6 +79349,11 @@
           <xsd:element ref="pc:Terms" minOccurs="0" maxOccurs="1"/>
         </xsd:sequence>
       </xsd:complexType>
+    </xsd:element>
+    <xsd:element name="MediaLengthInSeconds" ma:index="23" nillable="true" ma:displayName="MediaLengthInSeconds" ma:hidden="true" ma:internalName="MediaLengthInSeconds" ma:readOnly="true">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Unknown"/>
+      </xsd:simpleType>
     </xsd:element>
   </xsd:schema>
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:dms="http://schemas.microsoft.com/office/2006/documentManagement/types" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls" targetNamespace="ffb314bc-7b2d-45ce-a517-7d370eafd82d" elementFormDefault="qualified">
@@ -79503,9 +79506,9 @@
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{7CFA041F-4023-4734-9968-656211B99F59}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{87594181-5066-4210-80A2-3BBF3968A9AE}"/>
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{9EFF5193-7F6E-4759-8C3E-7CDBB7FAABEF}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{8F9E3FFA-FA15-482D-B114-01E4078E5000}"/>
 </file>
--- a/references/codebook.xlsx
+++ b/references/codebook.xlsx
@@ -80355,9 +80355,9 @@
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{ABC89CEB-7087-4D6E-A694-71E6137DB182}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{A2360ED3-3670-4AEB-AD1B-FEF9F43C9412}"/>
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{01B4DBE1-3A27-4B9E-AD5E-8651BE89F148}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{76545E14-D24C-4570-8A4A-44C247981AED}"/>
 </file>
--- a/references/codebook.xlsx
+++ b/references/codebook.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13709" uniqueCount="3971">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13709" uniqueCount="3969">
   <si>
     <t>KPI_Code</t>
   </si>
@@ -11839,9 +11839,6 @@
     <t>0001-01-01T00:00:00</t>
   </si>
   <si>
-    <t>2024-09-05T13:04:41.937</t>
-  </si>
-  <si>
     <t>Number of people reached - Heatwave risk reduction, preparedness or response - Total</t>
   </si>
   <si>
@@ -11924,9 +11921,6 @@
   </si>
   <si>
     <t>SP.URB.TOTL.IN.ZS</t>
-  </si>
-  <si>
-    <t>Andras LAZAR</t>
   </si>
 </sst>
 </file>
@@ -12498,10 +12492,10 @@
         <v>1865</v>
       </c>
       <c r="N5" t="s">
-        <v>3959</v>
+        <v>3958</v>
       </c>
       <c r="O5" t="s">
-        <v>3961</v>
+        <v>3960</v>
       </c>
     </row>
     <row r="6" spans="1:16">
@@ -12697,13 +12691,13 @@
         <v>3937</v>
       </c>
       <c r="L10" t="s">
-        <v>3941</v>
+        <v>3940</v>
       </c>
       <c r="M10" t="s">
         <v>1870</v>
       </c>
-      <c r="P10" t="s">
-        <v>3970</v>
+      <c r="N10" t="s">
+        <v>3706</v>
       </c>
     </row>
     <row r="11" spans="1:16">
@@ -13025,10 +13019,10 @@
         <v>1878</v>
       </c>
       <c r="N18" t="s">
-        <v>3959</v>
+        <v>3958</v>
       </c>
       <c r="O18" t="s">
-        <v>3962</v>
+        <v>3961</v>
       </c>
     </row>
     <row r="19" spans="1:15">
@@ -13072,10 +13066,10 @@
         <v>1879</v>
       </c>
       <c r="N19" t="s">
-        <v>3959</v>
+        <v>3958</v>
       </c>
       <c r="O19" t="s">
-        <v>3963</v>
+        <v>3962</v>
       </c>
     </row>
     <row r="20" spans="1:15">
@@ -13646,7 +13640,7 @@
         <v>1893</v>
       </c>
       <c r="N33" t="s">
-        <v>3960</v>
+        <v>3959</v>
       </c>
     </row>
     <row r="34" spans="1:16">
@@ -14223,7 +14217,7 @@
         <v>1907</v>
       </c>
       <c r="N47" t="s">
-        <v>3960</v>
+        <v>3959</v>
       </c>
       <c r="P47" t="s">
         <v>3937</v>
@@ -16689,7 +16683,7 @@
         <v>1967</v>
       </c>
       <c r="N107" t="s">
-        <v>3960</v>
+        <v>3959</v>
       </c>
       <c r="P107" t="s">
         <v>3937</v>
@@ -16856,7 +16850,7 @@
         <v>3940</v>
       </c>
       <c r="M111" t="s">
-        <v>3942</v>
+        <v>3941</v>
       </c>
     </row>
     <row r="112" spans="1:16">
@@ -19796,7 +19790,7 @@
         <v>3756</v>
       </c>
       <c r="M183" t="s">
-        <v>3943</v>
+        <v>3942</v>
       </c>
       <c r="P183" t="s">
         <v>3937</v>
@@ -19840,7 +19834,7 @@
         <v>3940</v>
       </c>
       <c r="M184" t="s">
-        <v>3944</v>
+        <v>3943</v>
       </c>
     </row>
     <row r="185" spans="1:16">
@@ -19919,7 +19913,7 @@
         <v>3756</v>
       </c>
       <c r="M186" t="s">
-        <v>3945</v>
+        <v>3944</v>
       </c>
       <c r="P186" t="s">
         <v>3937</v>
@@ -21989,7 +21983,7 @@
         <v>2097</v>
       </c>
       <c r="N240" t="s">
-        <v>3960</v>
+        <v>3959</v>
       </c>
     </row>
     <row r="241" spans="1:13">
@@ -22726,7 +22720,7 @@
         <v>2116</v>
       </c>
       <c r="N259" t="s">
-        <v>3960</v>
+        <v>3959</v>
       </c>
     </row>
     <row r="260" spans="1:14">
@@ -22770,7 +22764,7 @@
         <v>2117</v>
       </c>
       <c r="N260" t="s">
-        <v>3960</v>
+        <v>3959</v>
       </c>
     </row>
     <row r="261" spans="1:14">
@@ -24422,7 +24416,7 @@
         <v>2160</v>
       </c>
       <c r="N303" t="s">
-        <v>3960</v>
+        <v>3959</v>
       </c>
     </row>
     <row r="304" spans="1:14">
@@ -25153,7 +25147,7 @@
         <v>3940</v>
       </c>
       <c r="M322" t="s">
-        <v>3946</v>
+        <v>3945</v>
       </c>
     </row>
     <row r="323" spans="1:14">
@@ -25361,7 +25355,7 @@
         <v>2184</v>
       </c>
       <c r="N327" t="s">
-        <v>3960</v>
+        <v>3959</v>
       </c>
     </row>
     <row r="328" spans="1:14">
@@ -25405,7 +25399,7 @@
         <v>2185</v>
       </c>
       <c r="N328" t="s">
-        <v>3960</v>
+        <v>3959</v>
       </c>
     </row>
     <row r="329" spans="1:14">
@@ -25554,7 +25548,7 @@
         <v>2187</v>
       </c>
       <c r="N332" t="s">
-        <v>3960</v>
+        <v>3959</v>
       </c>
     </row>
     <row r="333" spans="1:14">
@@ -25639,7 +25633,7 @@
         <v>2189</v>
       </c>
       <c r="N334" t="s">
-        <v>3960</v>
+        <v>3959</v>
       </c>
     </row>
     <row r="335" spans="1:14">
@@ -32801,7 +32795,7 @@
         <v>3940</v>
       </c>
       <c r="M519" t="s">
-        <v>3947</v>
+        <v>3946</v>
       </c>
     </row>
     <row r="520" spans="1:13">
@@ -34181,7 +34175,7 @@
         <v>2410</v>
       </c>
       <c r="N555" t="s">
-        <v>3960</v>
+        <v>3959</v>
       </c>
     </row>
     <row r="556" spans="1:14">
@@ -34874,7 +34868,7 @@
         <v>2428</v>
       </c>
       <c r="N573" t="s">
-        <v>3960</v>
+        <v>3959</v>
       </c>
     </row>
     <row r="574" spans="1:14">
@@ -36488,7 +36482,7 @@
         <v>2470</v>
       </c>
       <c r="N615" t="s">
-        <v>3960</v>
+        <v>3959</v>
       </c>
     </row>
     <row r="616" spans="1:14">
@@ -41166,7 +41160,7 @@
         <v>2592</v>
       </c>
       <c r="N737" t="s">
-        <v>3960</v>
+        <v>3959</v>
       </c>
     </row>
     <row r="738" spans="1:16">
@@ -43239,7 +43233,7 @@
         <v>2646</v>
       </c>
       <c r="N791" t="s">
-        <v>3960</v>
+        <v>3959</v>
       </c>
       <c r="P791" t="s">
         <v>3937</v>
@@ -43976,7 +43970,7 @@
         <v>2665</v>
       </c>
       <c r="N810" t="s">
-        <v>3960</v>
+        <v>3959</v>
       </c>
       <c r="P810" t="s">
         <v>3937</v>
@@ -44058,7 +44052,7 @@
         <v>3940</v>
       </c>
       <c r="M812" t="s">
-        <v>3948</v>
+        <v>3947</v>
       </c>
     </row>
     <row r="813" spans="1:16">
@@ -44102,7 +44096,7 @@
         <v>2668</v>
       </c>
       <c r="N813" t="s">
-        <v>3960</v>
+        <v>3959</v>
       </c>
     </row>
     <row r="814" spans="1:16">
@@ -46175,7 +46169,7 @@
         <v>2722</v>
       </c>
       <c r="N867" t="s">
-        <v>3960</v>
+        <v>3959</v>
       </c>
     </row>
     <row r="868" spans="1:14">
@@ -46909,7 +46903,7 @@
         <v>2741</v>
       </c>
       <c r="N886" t="s">
-        <v>3960</v>
+        <v>3959</v>
       </c>
     </row>
     <row r="887" spans="1:14">
@@ -46988,7 +46982,7 @@
         <v>3940</v>
       </c>
       <c r="M888" t="s">
-        <v>3949</v>
+        <v>3948</v>
       </c>
     </row>
     <row r="889" spans="1:14">
@@ -47029,10 +47023,10 @@
         <v>3940</v>
       </c>
       <c r="M889" t="s">
-        <v>3950</v>
+        <v>3949</v>
       </c>
       <c r="N889" t="s">
-        <v>3960</v>
+        <v>3959</v>
       </c>
     </row>
     <row r="890" spans="1:14">
@@ -47608,7 +47602,7 @@
         <v>3940</v>
       </c>
       <c r="M904" t="s">
-        <v>3951</v>
+        <v>3950</v>
       </c>
     </row>
     <row r="905" spans="1:16">
@@ -49102,10 +49096,10 @@
         <v>3940</v>
       </c>
       <c r="M943" t="s">
-        <v>3952</v>
+        <v>3951</v>
       </c>
       <c r="N943" t="s">
-        <v>3960</v>
+        <v>3959</v>
       </c>
     </row>
     <row r="944" spans="1:14">
@@ -49836,10 +49830,10 @@
         <v>3791</v>
       </c>
       <c r="M962" t="s">
-        <v>3953</v>
+        <v>3952</v>
       </c>
       <c r="N962" t="s">
-        <v>3960</v>
+        <v>3959</v>
       </c>
       <c r="P962" t="s">
         <v>3937</v>
@@ -49965,7 +49959,7 @@
         <v>2819</v>
       </c>
       <c r="N965" t="s">
-        <v>3960</v>
+        <v>3959</v>
       </c>
     </row>
     <row r="966" spans="1:16">
@@ -52038,7 +52032,7 @@
         <v>2873</v>
       </c>
       <c r="N1019" t="s">
-        <v>3960</v>
+        <v>3959</v>
       </c>
       <c r="P1019" t="s">
         <v>3937</v>
@@ -52775,7 +52769,7 @@
         <v>2892</v>
       </c>
       <c r="N1038" t="s">
-        <v>3960</v>
+        <v>3959</v>
       </c>
       <c r="P1038" t="s">
         <v>3937</v>
@@ -52901,7 +52895,7 @@
         <v>2895</v>
       </c>
       <c r="N1041" t="s">
-        <v>3960</v>
+        <v>3959</v>
       </c>
     </row>
     <row r="1042" spans="1:16">
@@ -53478,7 +53472,7 @@
         <v>2909</v>
       </c>
       <c r="N1055" t="s">
-        <v>3960</v>
+        <v>3959</v>
       </c>
       <c r="P1055" t="s">
         <v>3937</v>
@@ -55903,7 +55897,7 @@
         <v>2968</v>
       </c>
       <c r="N1114" t="s">
-        <v>3960</v>
+        <v>3959</v>
       </c>
       <c r="P1114" t="s">
         <v>3937</v>
@@ -56032,7 +56026,7 @@
         <v>2971</v>
       </c>
       <c r="N1117" t="s">
-        <v>3960</v>
+        <v>3959</v>
       </c>
     </row>
     <row r="1118" spans="1:16">
@@ -56606,10 +56600,10 @@
         <v>3795</v>
       </c>
       <c r="M1131" t="s">
-        <v>3954</v>
+        <v>3953</v>
       </c>
       <c r="N1131" t="s">
-        <v>3960</v>
+        <v>3959</v>
       </c>
       <c r="P1131" t="s">
         <v>3937</v>
@@ -56691,7 +56685,7 @@
         <v>3839</v>
       </c>
       <c r="M1133" t="s">
-        <v>3955</v>
+        <v>3954</v>
       </c>
       <c r="P1133" t="s">
         <v>3937</v>
@@ -59034,7 +59028,7 @@
         <v>3044</v>
       </c>
       <c r="N1190" t="s">
-        <v>3960</v>
+        <v>3959</v>
       </c>
       <c r="P1190" t="s">
         <v>3937</v>
@@ -59163,7 +59157,7 @@
         <v>3047</v>
       </c>
       <c r="N1193" t="s">
-        <v>3960</v>
+        <v>3959</v>
       </c>
     </row>
     <row r="1194" spans="1:16">
@@ -61236,7 +61230,7 @@
         <v>3101</v>
       </c>
       <c r="N1247" t="s">
-        <v>3960</v>
+        <v>3959</v>
       </c>
       <c r="P1247" t="s">
         <v>3937</v>
@@ -61973,7 +61967,7 @@
         <v>3120</v>
       </c>
       <c r="N1266" t="s">
-        <v>3960</v>
+        <v>3959</v>
       </c>
       <c r="P1266" t="s">
         <v>3937</v>
@@ -62099,7 +62093,7 @@
         <v>3123</v>
       </c>
       <c r="N1269" t="s">
-        <v>3960</v>
+        <v>3959</v>
       </c>
     </row>
     <row r="1270" spans="1:16">
@@ -64172,7 +64166,7 @@
         <v>3177</v>
       </c>
       <c r="N1323" t="s">
-        <v>3960</v>
+        <v>3959</v>
       </c>
       <c r="P1323" t="s">
         <v>3937</v>
@@ -64909,7 +64903,7 @@
         <v>3196</v>
       </c>
       <c r="N1342" t="s">
-        <v>3960</v>
+        <v>3959</v>
       </c>
       <c r="P1342" t="s">
         <v>3937</v>
@@ -65035,7 +65029,7 @@
         <v>3199</v>
       </c>
       <c r="N1345" t="s">
-        <v>3960</v>
+        <v>3959</v>
       </c>
     </row>
     <row r="1346" spans="1:16">
@@ -67108,7 +67102,7 @@
         <v>3253</v>
       </c>
       <c r="N1399" t="s">
-        <v>3960</v>
+        <v>3959</v>
       </c>
       <c r="P1399" t="s">
         <v>3937</v>
@@ -67886,7 +67880,7 @@
         <v>3273</v>
       </c>
       <c r="N1419" t="s">
-        <v>3960</v>
+        <v>3959</v>
       </c>
       <c r="P1419" t="s">
         <v>3937</v>
@@ -68094,7 +68088,7 @@
         <v>3278</v>
       </c>
       <c r="N1424" t="s">
-        <v>3960</v>
+        <v>3959</v>
       </c>
     </row>
     <row r="1425" spans="1:16">
@@ -68671,7 +68665,7 @@
         <v>3292</v>
       </c>
       <c r="N1438" t="s">
-        <v>3960</v>
+        <v>3959</v>
       </c>
       <c r="P1438" t="s">
         <v>3937</v>
@@ -71096,7 +71090,7 @@
         <v>3351</v>
       </c>
       <c r="N1497" t="s">
-        <v>3960</v>
+        <v>3959</v>
       </c>
       <c r="P1497" t="s">
         <v>3937</v>
@@ -71225,7 +71219,7 @@
         <v>3354</v>
       </c>
       <c r="N1500" t="s">
-        <v>3960</v>
+        <v>3959</v>
       </c>
     </row>
     <row r="1501" spans="1:16">
@@ -73298,7 +73292,7 @@
         <v>3408</v>
       </c>
       <c r="N1554" t="s">
-        <v>3960</v>
+        <v>3959</v>
       </c>
       <c r="P1554" t="s">
         <v>3937</v>
@@ -74035,7 +74029,7 @@
         <v>3427</v>
       </c>
       <c r="N1573" t="s">
-        <v>3960</v>
+        <v>3959</v>
       </c>
       <c r="P1573" t="s">
         <v>3937</v>
@@ -74161,7 +74155,7 @@
         <v>3430</v>
       </c>
       <c r="N1576" t="s">
-        <v>3960</v>
+        <v>3959</v>
       </c>
     </row>
     <row r="1577" spans="1:16">
@@ -76234,7 +76228,7 @@
         <v>3484</v>
       </c>
       <c r="N1630" t="s">
-        <v>3960</v>
+        <v>3959</v>
       </c>
       <c r="P1630" t="s">
         <v>3937</v>
@@ -76971,7 +76965,7 @@
         <v>3503</v>
       </c>
       <c r="N1649" t="s">
-        <v>3960</v>
+        <v>3959</v>
       </c>
       <c r="P1649" t="s">
         <v>3937</v>
@@ -77053,7 +77047,7 @@
         <v>3940</v>
       </c>
       <c r="M1651" t="s">
-        <v>3956</v>
+        <v>3955</v>
       </c>
     </row>
     <row r="1652" spans="1:16">
@@ -77094,10 +77088,10 @@
         <v>3940</v>
       </c>
       <c r="M1652" t="s">
-        <v>3957</v>
+        <v>3956</v>
       </c>
       <c r="N1652" t="s">
-        <v>3960</v>
+        <v>3959</v>
       </c>
     </row>
     <row r="1653" spans="1:16">
@@ -79167,10 +79161,10 @@
         <v>3787</v>
       </c>
       <c r="M1706" t="s">
-        <v>3958</v>
+        <v>3957</v>
       </c>
       <c r="N1706" t="s">
-        <v>3960</v>
+        <v>3959</v>
       </c>
       <c r="P1706" t="s">
         <v>3937</v>
@@ -79907,7 +79901,7 @@
         <v>3579</v>
       </c>
       <c r="N1725" t="s">
-        <v>3960</v>
+        <v>3959</v>
       </c>
       <c r="P1725" t="s">
         <v>3937</v>
@@ -80109,7 +80103,7 @@
         <v>3584</v>
       </c>
       <c r="N1730" t="s">
-        <v>3960</v>
+        <v>3959</v>
       </c>
     </row>
     <row r="1731" spans="1:14">
@@ -82138,7 +82132,7 @@
         <v>3636</v>
       </c>
       <c r="N1783" t="s">
-        <v>3960</v>
+        <v>3959</v>
       </c>
     </row>
     <row r="1784" spans="1:14">
@@ -83042,10 +83036,10 @@
         <v>3659</v>
       </c>
       <c r="N1806" t="s">
-        <v>3959</v>
+        <v>3958</v>
       </c>
       <c r="O1806" t="s">
-        <v>3964</v>
+        <v>3963</v>
       </c>
     </row>
     <row r="1807" spans="1:15">
@@ -83089,10 +83083,10 @@
         <v>3660</v>
       </c>
       <c r="N1807" t="s">
-        <v>3959</v>
+        <v>3958</v>
       </c>
       <c r="O1807" t="s">
-        <v>3965</v>
+        <v>3964</v>
       </c>
     </row>
     <row r="1808" spans="1:15">
@@ -83174,10 +83168,10 @@
         <v>3662</v>
       </c>
       <c r="N1809" t="s">
-        <v>3959</v>
+        <v>3958</v>
       </c>
       <c r="O1809" t="s">
-        <v>3966</v>
+        <v>3965</v>
       </c>
     </row>
     <row r="1810" spans="1:15">
@@ -83467,10 +83461,10 @@
         <v>3669</v>
       </c>
       <c r="N1816" t="s">
-        <v>3959</v>
+        <v>3958</v>
       </c>
       <c r="O1816" t="s">
-        <v>3967</v>
+        <v>3966</v>
       </c>
     </row>
     <row r="1817" spans="1:15">
@@ -83514,10 +83508,10 @@
         <v>3670</v>
       </c>
       <c r="N1817" t="s">
-        <v>3959</v>
+        <v>3958</v>
       </c>
       <c r="O1817" t="s">
-        <v>3968</v>
+        <v>3967</v>
       </c>
     </row>
     <row r="1818" spans="1:15">
@@ -84785,10 +84779,10 @@
         <v>3701</v>
       </c>
       <c r="N1848" t="s">
-        <v>3959</v>
+        <v>3958</v>
       </c>
       <c r="O1848" t="s">
-        <v>3969</v>
+        <v>3968</v>
       </c>
     </row>
     <row r="1849" spans="1:15">
